--- a/study01/report/motivation/interest-enjoyment/MeasurementModel.xlsx
+++ b/study01/report/motivation/interest-enjoyment/MeasurementModel.xlsx
@@ -5164,25 +5164,25 @@
         <v>31</v>
       </c>
       <c r="B36" t="n" s="271">
-        <v>1.004197054610973</v>
+        <v>1.0059688429611193</v>
       </c>
       <c r="C36" t="n" s="272">
-        <v>0.0698847777183726</v>
+        <v>0.08000657743297011</v>
       </c>
       <c r="D36" t="n" s="273">
-        <v>0.9442853691253665</v>
+        <v>0.9362320247080469</v>
       </c>
       <c r="E36" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F36" t="n" s="275">
-        <v>1.0974328744994117</v>
+        <v>1.095241876796916</v>
       </c>
       <c r="G36" t="n" s="276">
-        <v>0.5327833845056065</v>
+        <v>0.5213435320918148</v>
       </c>
       <c r="H36" t="n" s="277">
-        <v>0.5941835368793754</v>
+        <v>0.6021274806593371</v>
       </c>
       <c r="I36" t="n" s="278">
         <v>1.0</v>
@@ -5193,28 +5193,28 @@
         <v>32</v>
       </c>
       <c r="B37" t="n" s="271">
-        <v>0.7450053229105106</v>
+        <v>0.7666499465613904</v>
       </c>
       <c r="C37" t="n" s="272">
-        <v>-1.2510640715352672</v>
+        <v>-1.1235398125008633</v>
       </c>
       <c r="D37" t="n" s="273">
-        <v>0.2109111024121352</v>
+        <v>0.26120830181220916</v>
       </c>
       <c r="E37" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="275">
-        <v>0.7750525104259686</v>
+        <v>0.7930542614554227</v>
       </c>
       <c r="G37" t="n" s="276">
-        <v>-1.2167494762625208</v>
+        <v>-1.0962049229426132</v>
       </c>
       <c r="H37" t="n" s="277">
-        <v>0.22369954830931923</v>
+        <v>0.2729891057206964</v>
       </c>
       <c r="I37" t="n" s="278">
-        <v>0.8947981932372769</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -5222,28 +5222,28 @@
         <v>33</v>
       </c>
       <c r="B38" t="n" s="271">
-        <v>0.6224190021532022</v>
+        <v>0.6296296791571897</v>
       </c>
       <c r="C38" t="n" s="272">
-        <v>-2.0740089561422392</v>
+        <v>-2.024266283685482</v>
       </c>
       <c r="D38" t="n" s="273">
-        <v>0.038078479089707816</v>
+        <v>0.042942760776856354</v>
       </c>
       <c r="E38" t="n" s="274">
-        <v>0.3807847908970782</v>
+        <v>0.38648484699170715</v>
       </c>
       <c r="F38" t="n" s="275">
-        <v>0.6383935171071207</v>
+        <v>0.6424193954756574</v>
       </c>
       <c r="G38" t="n" s="276">
-        <v>-2.1517849855411524</v>
+        <v>-2.120053874740595</v>
       </c>
       <c r="H38" t="n" s="277">
-        <v>0.031414292934487525</v>
+        <v>0.03400150217856858</v>
       </c>
       <c r="I38" t="n" s="278">
-        <v>0.18848575760692515</v>
+        <v>0.20400901307141148</v>
       </c>
     </row>
     <row r="39">
@@ -5251,28 +5251,28 @@
         <v>34</v>
       </c>
       <c r="B39" t="n" s="271">
-        <v>1.3917537877009227</v>
+        <v>1.3993808101588703</v>
       </c>
       <c r="C39" t="n" s="272">
-        <v>1.7796748139772263</v>
+        <v>1.7934752529361955</v>
       </c>
       <c r="D39" t="n" s="273">
-        <v>0.07512919459938347</v>
+        <v>0.07289696419776498</v>
       </c>
       <c r="E39" t="n" s="274">
-        <v>0.5798432132336866</v>
+        <v>0.58307521560775</v>
       </c>
       <c r="F39" t="n" s="275">
-        <v>1.4231961634906865</v>
+        <v>1.4317828222320905</v>
       </c>
       <c r="G39" t="n" s="276">
-        <v>2.061019340614334</v>
+        <v>2.0902632502481717</v>
       </c>
       <c r="H39" t="n" s="277">
-        <v>0.0393011949807627</v>
+        <v>0.0365941585578587</v>
       </c>
       <c r="I39" t="n" s="278">
-        <v>0.1965059749038135</v>
+        <v>0.20400901307141148</v>
       </c>
     </row>
     <row r="40">
@@ -5280,25 +5280,25 @@
         <v>35</v>
       </c>
       <c r="B40" t="n" s="271">
-        <v>1.0074692741231785</v>
+        <v>1.0220542428650778</v>
       </c>
       <c r="C40" t="n" s="272">
-        <v>0.08404977958126843</v>
+        <v>0.15574062033069813</v>
       </c>
       <c r="D40" t="n" s="273">
-        <v>0.933016853372733</v>
+        <v>0.8762374774190722</v>
       </c>
       <c r="E40" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="275">
-        <v>1.1151635066612673</v>
+        <v>1.1241756150609208</v>
       </c>
       <c r="G40" t="n" s="276">
-        <v>0.6203530738327504</v>
+        <v>0.6667119145905938</v>
       </c>
       <c r="H40" t="n" s="277">
-        <v>0.5350253598981158</v>
+        <v>0.5049561668117661</v>
       </c>
       <c r="I40" t="n" s="278">
         <v>1.0</v>
@@ -5309,25 +5309,25 @@
         <v>36</v>
       </c>
       <c r="B41" t="n" s="271">
-        <v>1.0391188673372307</v>
+        <v>1.0437669150259539</v>
       </c>
       <c r="C41" t="n" s="272">
-        <v>0.22787171711261284</v>
+        <v>0.254021820933598</v>
       </c>
       <c r="D41" t="n" s="273">
-        <v>0.8197459707829784</v>
+        <v>0.7994787002289485</v>
       </c>
       <c r="E41" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="275">
-        <v>1.0341912754262683</v>
+        <v>1.0459084296171919</v>
       </c>
       <c r="G41" t="n" s="276">
-        <v>0.21672050562930192</v>
+        <v>0.28283001539842295</v>
       </c>
       <c r="H41" t="n" s="277">
-        <v>0.8284261665898974</v>
+        <v>0.7773071443736719</v>
       </c>
       <c r="I41" t="n" s="278">
         <v>1.0</v>
@@ -5338,28 +5338,28 @@
         <v>57</v>
       </c>
       <c r="B42" t="n" s="271">
-        <v>3.603364230758575</v>
+        <v>3.5879991349726774</v>
       </c>
       <c r="C42" t="n" s="272">
-        <v>1.796088760680622</v>
+        <v>1.7935538893317948</v>
       </c>
       <c r="D42" t="n" s="273">
-        <v>0.07248040165421082</v>
+        <v>0.07288440195096875</v>
       </c>
       <c r="E42" t="n" s="274">
-        <v>0.5798432132336866</v>
+        <v>0.58307521560775</v>
       </c>
       <c r="F42" t="n" s="275">
-        <v>2.25776937282228</v>
+        <v>2.2759060057369918</v>
       </c>
       <c r="G42" t="n" s="276">
-        <v>10.268888997984408</v>
+        <v>10.298700634309146</v>
       </c>
       <c r="H42" t="n" s="277">
-        <v>9.731891846462735E-25</v>
+        <v>7.141944377226668E-25</v>
       </c>
       <c r="I42" t="n" s="278">
-        <v>9.731891846462736E-24</v>
+        <v>7.141944377226668E-24</v>
       </c>
     </row>
     <row r="43">
@@ -5367,28 +5367,28 @@
         <v>58</v>
       </c>
       <c r="B43" t="n" s="271">
-        <v>2.3389795080604094</v>
+        <v>2.3546750559876255</v>
       </c>
       <c r="C43" t="n" s="272">
-        <v>1.478214539772983</v>
+        <v>1.4726028034192256</v>
       </c>
       <c r="D43" t="n" s="273">
-        <v>0.13935036337782636</v>
+        <v>0.14085816845119417</v>
       </c>
       <c r="E43" t="n" s="274">
-        <v>0.8361021802669582</v>
+        <v>0.8451490107071651</v>
       </c>
       <c r="F43" t="n" s="275">
-        <v>1.9297441843027874</v>
+        <v>1.9620758762147978</v>
       </c>
       <c r="G43" t="n" s="276">
-        <v>9.204238121756422</v>
+        <v>9.406705198206803</v>
       </c>
       <c r="H43" t="n" s="277">
-        <v>3.44103565226004E-20</v>
+        <v>5.119327543619009E-21</v>
       </c>
       <c r="I43" t="n" s="278">
-        <v>3.096932087034036E-19</v>
+        <v>4.6073947892571085E-20</v>
       </c>
     </row>
     <row r="44">
@@ -5396,28 +5396,28 @@
         <v>59</v>
       </c>
       <c r="B44" t="n" s="271">
-        <v>1.5858597493733768</v>
+        <v>1.6207008081742091</v>
       </c>
       <c r="C44" t="n" s="272">
-        <v>0.9905373928027839</v>
+        <v>1.0182142420383167</v>
       </c>
       <c r="D44" t="n" s="273">
-        <v>0.32191152166257786</v>
+        <v>0.3085761526273313</v>
       </c>
       <c r="E44" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F44" t="n" s="275">
-        <v>1.5711204157139942</v>
+        <v>1.6118327480751435</v>
       </c>
       <c r="G44" t="n" s="276">
-        <v>7.639010405472132</v>
+        <v>8.124146225706838</v>
       </c>
       <c r="H44" t="n" s="277">
-        <v>2.1889761876684942E-14</v>
+        <v>4.505223574067245E-16</v>
       </c>
       <c r="I44" t="n" s="278">
-        <v>1.7511809501347954E-13</v>
+        <v>3.604178859253796E-15</v>
       </c>
     </row>
     <row r="45">
@@ -5425,28 +5425,28 @@
         <v>60</v>
       </c>
       <c r="B45" t="n" s="271">
-        <v>1.6885534180885837</v>
+        <v>1.7163241435988832</v>
       </c>
       <c r="C45" t="n" s="272">
-        <v>1.8591764725924602</v>
+        <v>2.4209357812880983</v>
       </c>
       <c r="D45" t="n" s="273">
-        <v>0.06300212853483174</v>
+        <v>0.015480611813875614</v>
       </c>
       <c r="E45" t="n" s="274">
-        <v>0.5670191568134857</v>
+        <v>0.15480611813875614</v>
       </c>
       <c r="F45" t="n" s="275">
-        <v>1.7424212731714674</v>
+        <v>1.7518510332993031</v>
       </c>
       <c r="G45" t="n" s="276">
-        <v>14.251237605791609</v>
+        <v>14.40686774556882</v>
       </c>
       <c r="H45" t="n" s="277">
-        <v>4.4040649765865335E-46</v>
+        <v>4.684797269683973E-47</v>
       </c>
       <c r="I45" t="n" s="278">
-        <v>4.844471474245187E-45</v>
+        <v>5.15327699665237E-46</v>
       </c>
     </row>
     <row r="46">
@@ -5454,28 +5454,28 @@
         <v>61</v>
       </c>
       <c r="B46" t="n" s="271">
-        <v>2.5586489873619573</v>
+        <v>3.076823031758639</v>
       </c>
       <c r="C46" t="n" s="272">
-        <v>14.578605168979138</v>
+        <v>22.448699318939568</v>
       </c>
       <c r="D46" t="n" s="273">
-        <v>3.842882477753246E-48</v>
+        <v>1.3177109993119673E-111</v>
       </c>
       <c r="E46" t="n" s="274">
-        <v>4.22717072552857E-47</v>
+        <v>1.449482099243164E-110</v>
       </c>
       <c r="F46" t="n" s="275">
-        <v>1.4708075411062707</v>
+        <v>1.4764840528241914</v>
       </c>
       <c r="G46" t="n" s="276">
-        <v>5.333473148605029</v>
+        <v>5.3635307679988395</v>
       </c>
       <c r="H46" t="n" s="277">
-        <v>9.63518166750133E-8</v>
+        <v>8.161074260319357E-8</v>
       </c>
       <c r="I46" t="n" s="278">
-        <v>6.74462716725093E-7</v>
+        <v>5.71275198222355E-7</v>
       </c>
     </row>
     <row r="47">
